--- a/Data/Processed/Angiosperms/missing_powo_ipni/Lamiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Lamiaceae.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -13346,7 +13346,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -18417,7 +18417,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 546. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 546. 1911</t>
         </is>
       </c>
       <c r="J322" t="b">
@@ -18495,7 +18495,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 2: 750. 1825 [Jan-May 1825] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 2: 750. 1825 [Jan-May 1825]</t>
         </is>
       </c>
       <c r="J323" t="b">
@@ -18573,7 +18573,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -18583,7 +18583,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ausw. Merkw. Pfl. 1: 4, t. 2. 1829 </t>
+          <t>Ausw. Merkw. Pfl. 1: 4, t. 2. 1829</t>
         </is>
       </c>
       <c r="J324" t="b">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pl. Nov. Mineir. 2: 4. 1900 </t>
+          <t>Pl. Nov. Mineir. 2: 4. 1900</t>
         </is>
       </c>
       <c r="J325" t="b">
@@ -18729,7 +18729,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -18739,7 +18739,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 553. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 553. 1911</t>
         </is>
       </c>
       <c r="J326" t="b">
@@ -18807,7 +18807,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -18817,7 +18817,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. Beih. 85: 273. 1936 </t>
+          <t>Repert. Spec. Nov. Regni Veg. Beih. 85: 273. 1936</t>
         </is>
       </c>
       <c r="J327" t="b">
@@ -18885,7 +18885,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -18895,7 +18895,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nat. Pflanzenfam. [Engler &amp; Prantl] 4, Abt. 3a: 346. 1897 </t>
+          <t>Nat. Pflanzenfam. [Engler &amp; Prantl] 4, Abt. 3a: 346. 1897</t>
         </is>
       </c>
       <c r="J328" t="b">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -18973,7 +18973,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 8: 299. 1957 </t>
+          <t>Brittonia 8: 299. 1957</t>
         </is>
       </c>
       <c r="J329" t="b">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 65: 66. 1918 </t>
+          <t>Bull. Soc. Bot. France 65: 66. 1918</t>
         </is>
       </c>
       <c r="J330" t="b">
@@ -19119,7 +19119,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -19129,7 +19129,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 553. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 553. 1911</t>
         </is>
       </c>
       <c r="J331" t="b">
@@ -19197,7 +19197,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -19519,7 +19519,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Torrey Bot. Club 71: 489. 1944 </t>
+          <t>Bull. Torrey Bot. Club 71: 489. 1944</t>
         </is>
       </c>
       <c r="J336" t="b">
@@ -19587,7 +19587,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -19597,7 +19597,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 18: 263. 1966 </t>
+          <t>Brittonia 18: 263. 1966</t>
         </is>
       </c>
       <c r="J337" t="b">
